--- a/biology/Botanique/Wilhelm_Hinner/Wilhelm_Hinner.xlsx
+++ b/biology/Botanique/Wilhelm_Hinner/Wilhelm_Hinner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilhelm Hinner, né le 13 octobre 1868 à Endersdorf dans l'arrondissement de Grottkau, province de Silésie et mort le 9 avril 1930, est un rosiériste allemand[1]. 'Gruss an Aachen' est son obtention la plus répandue aujourd'hui, créée lorsqu'il travaillait chez Geduldig.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilhelm Hinner, né le 13 octobre 1868 à Endersdorf dans l'arrondissement de Grottkau, province de Silésie et mort le 9 avril 1930, est un rosiériste allemand. 'Gruss an Aachen' est son obtention la plus répandue aujourd'hui, créée lorsqu'il travaillait chez Geduldig.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilhelm Hinner travaille chez le fameux horticulteur Peter Lambert à partir de 1897[2], puis s'installe en 1900 en partenariat avec Nicola Welter[3], mais un an plus tard il ouvre à son compte son propre établissement à Trèves (avec une interruption entre 1906 et 1908 où il est employé chez Philipp Geduldig à Aix-la-Chapelle). En 1902, son catalogue comprend une soixantaine de variétés. En 1908, Hinner s'installe à Lohhausen, près de Düsseldorf où il demeure jusqu'au milieu des années 1920[4]. À partir de 1897, il écrit régulièrement dans le Gartenwelt. 
-Parmi ses obtentions, l'on peut signaler les hybrides de thé 'Pharisäer' (1901), de couleur rose saumon, 'Farbenkönigin' (1902), de couleur rose argenté ; 'Goldelse' (1902), de couleur jaune[5] ; le fameux 'Gruss an Aachen' (avant 1908), de couleur rose ; 'Rote Pharisäer' (1926), de couleur rouge.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilhelm Hinner travaille chez le fameux horticulteur Peter Lambert à partir de 1897, puis s'installe en 1900 en partenariat avec Nicola Welter, mais un an plus tard il ouvre à son compte son propre établissement à Trèves (avec une interruption entre 1906 et 1908 où il est employé chez Philipp Geduldig à Aix-la-Chapelle). En 1902, son catalogue comprend une soixantaine de variétés. En 1908, Hinner s'installe à Lohhausen, près de Düsseldorf où il demeure jusqu'au milieu des années 1920. À partir de 1897, il écrit régulièrement dans le Gartenwelt. 
+Parmi ses obtentions, l'on peut signaler les hybrides de thé 'Pharisäer' (1901), de couleur rose saumon, 'Farbenkönigin' (1902), de couleur rose argenté ; 'Goldelse' (1902), de couleur jaune ; le fameux 'Gruss an Aachen' (avant 1908), de couleur rose ; 'Rote Pharisäer' (1926), de couleur rouge.
 </t>
         </is>
       </c>
